--- a/serv_ptme_app1.xlsx
+++ b/serv_ptme_app1.xlsx
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="CM4" s="3">
-        <v>45826</v>
+        <v>45855</v>
       </c>
       <c r="CN4" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="CQ4" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="CM6" s="3">
-        <v>45826</v>
+        <v>45855</v>
       </c>
       <c r="CN6" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="CQ6" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="CM7" s="3">
-        <v>45826</v>
+        <v>45855</v>
       </c>
       <c r="CN7" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="CQ7" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="CM17" s="3">
-        <v>45797</v>
+        <v>45855</v>
       </c>
       <c r="CN17" t="inlineStr">
         <is>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="CQ17" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="CM20" s="3">
-        <v>45797</v>
+        <v>45855</v>
       </c>
       <c r="CN20" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="CQ20" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="CM21" s="3">
-        <v>45826</v>
+        <v>45855</v>
       </c>
       <c r="CN21" t="inlineStr">
         <is>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="CQ21" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -7774,6 +7774,29 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="CK28" t="inlineStr">
+        <is>
+          <t>Hôpital Saint-Jean de Limbe</t>
+        </is>
+      </c>
+      <c r="CL28" t="inlineStr">
+        <is>
+          <t>Lite pou lavi I</t>
+        </is>
+      </c>
+      <c r="CM28" s="3">
+        <v>45849</v>
+      </c>
+      <c r="CN28" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="CO28" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
       <c r="CP28" t="inlineStr">
         <is>
           <t>no</t>
@@ -17974,7 +17997,7 @@
         </is>
       </c>
       <c r="CM68" s="3">
-        <v>45848</v>
+        <v>45834</v>
       </c>
       <c r="CN68" t="inlineStr">
         <is>
@@ -17993,7 +18016,7 @@
       </c>
       <c r="CQ68" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -19299,6 +19322,29 @@
           <t>no</t>
         </is>
       </c>
+      <c r="CK73" t="inlineStr">
+        <is>
+          <t>Clinique Medico-Chirurgicale Dugue</t>
+        </is>
+      </c>
+      <c r="CL73" t="inlineStr">
+        <is>
+          <t>Orchidee 3</t>
+        </is>
+      </c>
+      <c r="CM73" s="3">
+        <v>45818</v>
+      </c>
+      <c r="CN73" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="CO73" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
       <c r="CP73" t="inlineStr">
         <is>
           <t>no</t>
@@ -19306,7 +19352,7 @@
       </c>
       <c r="CQ73" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -20472,7 +20518,7 @@
         </is>
       </c>
       <c r="CM78" s="3">
-        <v>45848</v>
+        <v>45818</v>
       </c>
       <c r="CN78" t="inlineStr">
         <is>
@@ -20491,7 +20537,7 @@
       </c>
       <c r="CQ78" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -20728,7 +20774,7 @@
         </is>
       </c>
       <c r="CM79" s="3">
-        <v>45848</v>
+        <v>45834</v>
       </c>
       <c r="CN79" t="inlineStr">
         <is>
@@ -20747,7 +20793,7 @@
       </c>
       <c r="CQ79" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -23924,7 +23970,7 @@
         </is>
       </c>
       <c r="CM92" s="3">
-        <v>45820</v>
+        <v>45855</v>
       </c>
       <c r="CN92" t="inlineStr">
         <is>
@@ -23943,7 +23989,7 @@
       </c>
       <c r="CQ92" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -48417,7 +48463,7 @@
         </is>
       </c>
       <c r="CM190" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="CN190" t="inlineStr">
         <is>
@@ -48436,7 +48482,7 @@
       </c>
       <c r="CQ190" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -49366,6 +49412,29 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="CK194" t="inlineStr">
+        <is>
+          <t>CS K-Soleil - Gonaïves</t>
+        </is>
+      </c>
+      <c r="CL194" t="inlineStr">
+        <is>
+          <t>Acajou</t>
+        </is>
+      </c>
+      <c r="CM194" s="3">
+        <v>45854</v>
+      </c>
+      <c r="CN194" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="CO194" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
       <c r="CP194" t="inlineStr">
         <is>
           <t>no</t>
@@ -49618,7 +49687,7 @@
         </is>
       </c>
       <c r="CM195" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="CN195" t="inlineStr">
         <is>
@@ -49637,7 +49706,7 @@
       </c>
       <c r="CQ195" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -50096,6 +50165,29 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="CK197" t="inlineStr">
+        <is>
+          <t>CS K-Soleil - Gonaïves</t>
+        </is>
+      </c>
+      <c r="CL197" t="inlineStr">
+        <is>
+          <t>Acajou</t>
+        </is>
+      </c>
+      <c r="CM197" s="3">
+        <v>45854</v>
+      </c>
+      <c r="CN197" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="CO197" t="inlineStr">
+        <is>
+          <t>0000-00-00</t>
+        </is>
+      </c>
       <c r="CP197" t="inlineStr">
         <is>
           <t>no</t>
@@ -51070,7 +51162,7 @@
         </is>
       </c>
       <c r="CM201" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="CN201" t="inlineStr">
         <is>
@@ -51089,7 +51181,7 @@
       </c>
       <c r="CQ201" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -51567,7 +51659,7 @@
         </is>
       </c>
       <c r="CM203" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="CN203" t="inlineStr">
         <is>
@@ -51586,7 +51678,7 @@
       </c>
       <c r="CQ203" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -51836,7 +51928,7 @@
         </is>
       </c>
       <c r="CM204" s="3">
-        <v>45798</v>
+        <v>45854</v>
       </c>
       <c r="CN204" t="inlineStr">
         <is>
@@ -51855,7 +51947,7 @@
       </c>
       <c r="CQ204" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
@@ -52333,7 +52425,7 @@
         </is>
       </c>
       <c r="CM206" s="3">
-        <v>45749</v>
+        <v>45854</v>
       </c>
       <c r="CN206" t="inlineStr">
         <is>
@@ -52352,7 +52444,7 @@
       </c>
       <c r="CQ206" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
